--- a/work.xlsx
+++ b/work.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>work</t>
+  </si>
+  <si>
+    <t>currently out of station, will be back on work on 1-feb-2019</t>
   </si>
 </sst>
 </file>
@@ -57,8 +60,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,13 +357,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -367,6 +376,14 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
